--- a/MINE/just_for_strage/画面設計.xlsx
+++ b/MINE/just_for_strage/画面設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -701,12 +701,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>セマフォ初期化関数</t>
-    <rPh sb="4" eb="7">
+    <t>共有メモリ初期化+関数群</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
       <t>ショキカ</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="9" eb="11">
       <t>カンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>グン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reset.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地点情報のリセット</t>
+    <rPh sb="0" eb="2">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1003,9 +1023,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,6 +1030,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1381,17 +1401,25 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1406,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AU40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18:AB18"/>
     </sheetView>
   </sheetViews>
@@ -1639,13 +1667,13 @@
       <c r="Y6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" s="47"/>
+      <c r="Z6" s="50"/>
       <c r="AA6" s="46"/>
       <c r="AB6" s="25"/>
       <c r="AC6" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="AD6" s="47"/>
+      <c r="AD6" s="50"/>
       <c r="AE6" s="46"/>
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
@@ -1876,11 +1904,11 @@
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -2989,15 +3017,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AA10:AB10"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AC17:AD17"/>
     <mergeCell ref="AA18:AB18"/>
@@ -3014,6 +3033,15 @@
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="AC11:AD11"/>
     <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AA10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
